--- a/teaching/traditional_assets/database/data/greece/greece_transportation.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_transportation.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0929</v>
+        <v>0.105</v>
       </c>
       <c r="G2">
-        <v>0.03515625</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="H2">
-        <v>0.03515625</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="I2">
-        <v>-0.0378125</v>
+        <v>-0.001475826972010178</v>
       </c>
       <c r="J2">
-        <v>-0.0378125</v>
+        <v>-0.001475826972010178</v>
       </c>
       <c r="K2">
-        <v>-2.75</v>
+        <v>-2.77</v>
       </c>
       <c r="L2">
-        <v>-0.04296875</v>
+        <v>-0.03524173027989822</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.002142857142857143</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.008664259927797834</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.024</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1.14</v>
+        <v>7.14</v>
       </c>
       <c r="V2">
-        <v>0.07972027972027972</v>
+        <v>0.6375000000000001</v>
       </c>
       <c r="W2">
-        <v>-0.3042035398230089</v>
+        <v>-0.4973070017953321</v>
       </c>
       <c r="X2">
-        <v>0.19595784388504</v>
+        <v>0.1850293811415115</v>
       </c>
       <c r="Y2">
-        <v>-0.5001613837080489</v>
+        <v>-0.6823363829368436</v>
       </c>
       <c r="Z2">
-        <v>4.40467997247075</v>
+        <v>2.815186246418338</v>
       </c>
       <c r="AA2">
-        <v>-0.1665519614590502</v>
+        <v>-0.004154727793696275</v>
       </c>
       <c r="AB2">
-        <v>0.1046689102935338</v>
+        <v>0.08233514316679655</v>
       </c>
       <c r="AC2">
-        <v>-0.271220871752584</v>
+        <v>-0.08648987096049282</v>
       </c>
       <c r="AD2">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="AG2">
-        <v>24.86</v>
+        <v>19.26</v>
       </c>
       <c r="AH2">
-        <v>0.6451612903225807</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="AI2">
-        <v>0.8194138039710054</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="AJ2">
-        <v>0.6348314606741573</v>
+        <v>0.6323046618516086</v>
       </c>
       <c r="AK2">
-        <v>0.8126838836220988</v>
+        <v>0.8750567923671059</v>
       </c>
       <c r="AL2">
-        <v>0.838</v>
+        <v>1.05</v>
       </c>
       <c r="AM2">
-        <v>0.7889999999999999</v>
+        <v>0.9730000000000001</v>
       </c>
       <c r="AN2">
-        <v>-29.91944764096663</v>
+        <v>28.32618025751073</v>
       </c>
       <c r="AO2">
-        <v>-2.88782816229117</v>
+        <v>-0.1104761904761905</v>
       </c>
       <c r="AP2">
-        <v>-28.60759493670886</v>
+        <v>20.66523605150214</v>
       </c>
       <c r="AQ2">
-        <v>-3.067173637515843</v>
+        <v>-0.1192189105858171</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0929</v>
+        <v>0.105</v>
       </c>
       <c r="G3">
-        <v>0.03515625</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="H3">
-        <v>0.03515625</v>
+        <v>0.01374045801526718</v>
       </c>
       <c r="I3">
-        <v>-0.0378125</v>
+        <v>-0.001475826972010178</v>
       </c>
       <c r="J3">
-        <v>-0.0378125</v>
+        <v>-0.001475826972010178</v>
       </c>
       <c r="K3">
-        <v>-2.75</v>
+        <v>-2.77</v>
       </c>
       <c r="L3">
-        <v>-0.04296875</v>
+        <v>-0.03524173027989822</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.024</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.002142857142857143</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.008664259927797834</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,76 +761,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.024</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1.14</v>
+        <v>7.14</v>
       </c>
       <c r="V3">
-        <v>0.07972027972027972</v>
+        <v>0.6375000000000001</v>
       </c>
       <c r="W3">
-        <v>-0.3042035398230089</v>
+        <v>-0.4973070017953321</v>
       </c>
       <c r="X3">
-        <v>0.19595784388504</v>
+        <v>0.1850293811415115</v>
       </c>
       <c r="Y3">
-        <v>-0.5001613837080489</v>
+        <v>-0.6823363829368436</v>
       </c>
       <c r="Z3">
-        <v>4.40467997247075</v>
+        <v>2.815186246418338</v>
       </c>
       <c r="AA3">
-        <v>-0.1665519614590502</v>
+        <v>-0.004154727793696275</v>
       </c>
       <c r="AB3">
-        <v>0.1046689102935338</v>
+        <v>0.08233514316679655</v>
       </c>
       <c r="AC3">
-        <v>-0.271220871752584</v>
+        <v>-0.08648987096049282</v>
       </c>
       <c r="AD3">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>26</v>
+        <v>26.4</v>
       </c>
       <c r="AG3">
-        <v>24.86</v>
+        <v>19.26</v>
       </c>
       <c r="AH3">
-        <v>0.6451612903225807</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="AI3">
-        <v>0.8194138039710054</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="AJ3">
-        <v>0.6348314606741573</v>
+        <v>0.6323046618516086</v>
       </c>
       <c r="AK3">
-        <v>0.8126838836220988</v>
+        <v>0.8750567923671059</v>
       </c>
       <c r="AL3">
-        <v>0.838</v>
+        <v>1.05</v>
       </c>
       <c r="AM3">
-        <v>0.7889999999999999</v>
+        <v>0.9730000000000001</v>
       </c>
       <c r="AN3">
-        <v>-29.91944764096663</v>
+        <v>28.32618025751073</v>
       </c>
       <c r="AO3">
-        <v>-2.88782816229117</v>
+        <v>-0.1104761904761905</v>
       </c>
       <c r="AP3">
-        <v>-28.60759493670886</v>
+        <v>20.66523605150214</v>
       </c>
       <c r="AQ3">
-        <v>-3.067173637515843</v>
+        <v>-0.1192189105858171</v>
       </c>
     </row>
   </sheetData>
